--- a/biology/Botanique/Baron_Gonella/Baron_Gonella.xlsx
+++ b/biology/Botanique/Baron_Gonella/Baron_Gonella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Baron Gonella' est un cultivar de rosier obtenu en 1859 en France par Jean-Baptiste Guillot père. Il s'agit d'un rosier Bourbon créé à partir d'un semis de 'Louise Odier'[1]. 
+'Baron Gonella' est un cultivar de rosier obtenu en 1859 en France par Jean-Baptiste Guillot père. Il s'agit d'un rosier Bourbon créé à partir d'un semis de 'Louise Odier'. 
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le buisson au port érigé bien ramifié mesure 1,20 m à 1,50 m. Ses branches sont presque inermes. Les grandes fleurs de 'Baron Gonella', de 26 à 40 pétales et de 12 cm de diamètre, sont en forme de grosses coupes pleines et globulaires. Elles sont peu parfumées. Leur couleur est d'un remarquable rose-lilas avec le revers des pétales aux reflets argentés[2]. Ce rosier ancien est faiblement remontant, mais sa première floraison fin mai début juin est exubérante[1], et elle dure tout l'été[3].
-La zone de rusticité de 'Baron Gonella' est 5b. Il s'agit donc d'un rosier vigoureux, résistant aux hivers froids[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le buisson au port érigé bien ramifié mesure 1,20 m à 1,50 m. Ses branches sont presque inermes. Les grandes fleurs de 'Baron Gonella', de 26 à 40 pétales et de 12 cm de diamètre, sont en forme de grosses coupes pleines et globulaires. Elles sont peu parfumées. Leur couleur est d'un remarquable rose-lilas avec le revers des pétales aux reflets argentés. Ce rosier ancien est faiblement remontant, mais sa première floraison fin mai début juin est exubérante, et elle dure tout l'été.
+La zone de rusticité de 'Baron Gonella' est 5b. Il s'agit donc d'un rosier vigoureux, résistant aux hivers froids.
 </t>
         </is>
       </c>
